--- a/documentation/Timemanagement.xlsx
+++ b/documentation/Timemanagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHWN\GIS Programmierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHWN\GIS Programmierung\Git\geocoding-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -38,22 +38,28 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Tasks tackled</t>
   </si>
   <si>
     <t>Karin</t>
   </si>
   <si>
-    <t>Breadfish</t>
-  </si>
-  <si>
     <t>Restsharp</t>
   </si>
   <si>
     <t>Net Time</t>
+  </si>
+  <si>
+    <t>Geo Coding Interface</t>
+  </si>
+  <si>
+    <t>Github synced?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,23 +101,23 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,7 +143,7 @@
     <tableColumn id="7" name="Net Time" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Device"/>
+    <tableColumn id="5" name="Github synced?"/>
     <tableColumn id="6" name="Tasks tackled"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -410,7 +416,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +424,7 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
     <col min="3" max="5" width="23.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,18 +442,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>41954</v>
@@ -463,16 +469,34 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="2">
-        <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/documentation/Timemanagement.xlsx
+++ b/documentation/Timemanagement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>PHP-Behelfs-Rest, damit die Interfaceprogrammierung ein Ziel hat</t>
+  </si>
+  <si>
+    <t>Interface, ArcGis Addin</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +431,7 @@
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
     <col min="3" max="5" width="23.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -500,15 +506,51 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E4" s="2">
         <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41645</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E5" s="2">
         <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/documentation/Timemanagement.xlsx
+++ b/documentation/Timemanagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHWN\GIS Programmierung\Git\geocoding-project\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHWN\GIS Programmierung\4Git\geocoding-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Interface, ArcGis Addin</t>
+  </si>
+  <si>
+    <t>Interface abstimmen auf Rest</t>
+  </si>
+  <si>
+    <t>Interface del fin, Arcgis, Doku</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,21 +560,75 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42040</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.75</v>
+      </c>
       <c r="E6" s="2">
         <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42054</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E7" s="2">
         <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42065</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E8" s="2">
         <f>Table1[[#This Row],[End Time]]-Table1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
